--- a/phancong.xlsx
+++ b/phancong.xlsx
@@ -5,14 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\CyberSoft\baitapHTML-css\HTM--CSS-Boostrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="539" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CorpVision" sheetId="1" r:id="rId1"/>
+    <sheet name="Dinner" sheetId="7" r:id="rId2"/>
+    <sheet name="Farmstead" sheetId="9" r:id="rId3"/>
+    <sheet name="Masterwork" sheetId="8" r:id="rId4"/>
+    <sheet name="PoochCare" sheetId="10" r:id="rId5"/>
+    <sheet name="Studious" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Start
 Build</t>
@@ -58,6 +63,26 @@
   <si>
     <t>Tasks Name:
 Corpvision</t>
+  </si>
+  <si>
+    <t>Tasks Name:
+Dinner</t>
+  </si>
+  <si>
+    <t>Tasks Name:
+Farmstead</t>
+  </si>
+  <si>
+    <t>Tasks Name:
+Masterwork</t>
+  </si>
+  <si>
+    <t>Tasks Name:
+PoochCare</t>
+  </si>
+  <si>
+    <t>Tasks Name:
+Studious</t>
   </si>
 </sst>
 </file>
@@ -467,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -509,4 +534,244 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="13.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="13.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="13.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="13.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="13.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>